--- a/spreadsheets/BofA_HJ_PodA.xlsx
+++ b/spreadsheets/BofA_HJ_PodA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hal/Desktop/sources/Optimum/oe-test/oe-test-pushhistory/spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/halwilkinson/Desktop/sources/OptimumJira/oe-test/oe-test-pushhistory/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{860FF7CC-BA7A-F44F-AB48-62B39AAE6179}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0D8AB9-4110-6B41-ABDF-038B6769B49E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4540" yWindow="460" windowWidth="26560" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2960,8 +2960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A172"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2989,7 +2989,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>99</v>
@@ -3000,7 +3000,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>99</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>62</v>
@@ -3061,7 +3061,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
         <v>61</v>
@@ -3075,7 +3075,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
         <v>63</v>
@@ -3089,7 +3089,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
         <v>153</v>
@@ -3117,7 +3117,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
         <v>154</v>
@@ -3131,7 +3131,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" t="s">
         <v>155</v>
@@ -3145,7 +3145,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" t="s">
         <v>156</v>
@@ -3159,7 +3159,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="s">
         <v>157</v>
@@ -3173,7 +3173,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
         <v>158</v>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" t="s">
         <v>159</v>
@@ -3201,7 +3201,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="s">
         <v>160</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
         <v>161</v>
@@ -3229,7 +3229,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" t="s">
         <v>162</v>
@@ -3243,7 +3243,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" t="s">
         <v>270</v>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" t="s">
         <v>269</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" t="s">
         <v>268</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
         <v>100</v>
@@ -3296,7 +3296,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" t="s">
         <v>141</v>
@@ -3310,7 +3310,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="s">
         <v>100</v>
@@ -3349,7 +3349,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="s">
         <v>99</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" t="s">
         <v>27</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="s">
         <v>100</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35" t="s">
         <v>25</v>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36" t="s">
         <v>24</v>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37" t="s">
         <v>34</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="s">
         <v>99</v>
@@ -3474,7 +3474,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39" t="s">
         <v>164</v>
@@ -3488,7 +3488,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="s">
         <v>99</v>
@@ -3499,7 +3499,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B41" t="s">
         <v>31</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B42" t="s">
         <v>29</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B43" t="s">
         <v>134</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44" t="s">
         <v>33</v>
@@ -3555,7 +3555,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>163</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B46" t="s">
         <v>165</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47" t="s">
         <v>135</v>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B48" t="s">
         <v>35</v>
@@ -3611,7 +3611,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B49" t="s">
         <v>136</v>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B50" t="s">
         <v>138</v>
@@ -3639,7 +3639,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B51" t="s">
         <v>120</v>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B52" t="s">
         <v>32</v>
@@ -3667,7 +3667,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53" t="s">
         <v>167</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B54" t="s">
         <v>168</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B55" t="s">
         <v>169</v>
@@ -3709,7 +3709,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="s">
         <v>99</v>
@@ -3720,7 +3720,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="s">
         <v>99</v>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B58" t="s">
         <v>170</v>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B59" t="s">
         <v>171</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B60" t="s">
         <v>175</v>
@@ -3773,7 +3773,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="s">
         <v>99</v>
@@ -3784,7 +3784,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="s">
         <v>99</v>
@@ -3795,7 +3795,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B63" t="s">
         <v>172</v>
@@ -3809,7 +3809,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B64" t="s">
         <v>173</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B65" t="s">
         <v>174</v>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="s">
         <v>99</v>
@@ -3848,7 +3848,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B67" t="s">
         <v>176</v>
@@ -3862,7 +3862,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="s">
         <v>100</v>
@@ -3873,7 +3873,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B69" t="s">
         <v>177</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B70" t="s">
         <v>178</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B71" t="s">
         <v>179</v>
@@ -3915,7 +3915,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B72" t="s">
         <v>180</v>
@@ -3929,7 +3929,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>166</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="s">
         <v>100</v>
@@ -3954,7 +3954,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B75" t="s">
         <v>181</v>
@@ -3968,7 +3968,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B76" t="s">
         <v>185</v>
@@ -3982,7 +3982,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B77" t="s">
         <v>182</v>
@@ -3996,7 +3996,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B78" t="s">
         <v>183</v>
@@ -4010,7 +4010,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B79" t="s">
         <v>184</v>
@@ -4024,7 +4024,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B80" t="s">
         <v>187</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B81" t="s">
         <v>188</v>
@@ -4052,7 +4052,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B82" t="s">
         <v>189</v>
@@ -4066,7 +4066,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="s">
         <v>100</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="s">
         <v>100</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B85" t="s">
         <v>190</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B86" t="s">
         <v>191</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B87" t="s">
         <v>192</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="s">
         <v>99</v>
@@ -4141,7 +4141,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="s">
         <v>99</v>
@@ -4152,7 +4152,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B90" t="s">
         <v>193</v>
@@ -4166,7 +4166,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B91" t="s">
         <v>194</v>
@@ -4180,7 +4180,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B92" t="s">
         <v>195</v>
@@ -4194,7 +4194,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B93" t="s">
         <v>196</v>
@@ -4208,7 +4208,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B94" t="s">
         <v>197</v>
@@ -4222,7 +4222,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="s">
         <v>99</v>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B96" t="s">
         <v>198</v>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B97" t="s">
         <v>199</v>
@@ -4261,7 +4261,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B98" t="s">
         <v>200</v>
@@ -4275,7 +4275,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B99" t="s">
         <v>201</v>
@@ -4289,7 +4289,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>186</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B101" t="s">
         <v>207</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B102" t="s">
         <v>202</v>
@@ -4331,7 +4331,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B103" t="s">
         <v>208</v>
@@ -4345,7 +4345,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B104" t="s">
         <v>203</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B105" t="s">
         <v>204</v>
@@ -4373,7 +4373,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B106" t="s">
         <v>205</v>
@@ -4387,7 +4387,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B107" t="s">
         <v>206</v>
@@ -4401,7 +4401,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" t="s">
         <v>99</v>
@@ -4412,7 +4412,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B109" t="s">
         <v>86</v>
@@ -4426,7 +4426,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="s">
         <v>99</v>
@@ -4437,7 +4437,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B111" t="s">
         <v>85</v>
@@ -4451,7 +4451,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" t="s">
         <v>99</v>
@@ -4462,7 +4462,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" t="s">
         <v>99</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B114" t="s">
         <v>271</v>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" t="s">
         <v>99</v>
@@ -4498,7 +4498,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B116" t="s">
         <v>272</v>
@@ -4512,7 +4512,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B117" t="s">
         <v>94</v>
@@ -4526,7 +4526,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B118" t="s">
         <v>128</v>
@@ -4540,7 +4540,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B119" t="s">
         <v>91</v>
@@ -4554,7 +4554,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B120" t="s">
         <v>209</v>
@@ -4568,7 +4568,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B121" t="s">
         <v>210</v>
@@ -4582,7 +4582,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C122" t="s">
         <v>99</v>
@@ -4593,7 +4593,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B123" t="s">
         <v>211</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B124" t="s">
         <v>212</v>
@@ -4621,7 +4621,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B125" t="s">
         <v>213</v>
@@ -4635,7 +4635,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B126" t="s">
         <v>214</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B127" t="s">
         <v>215</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B128" t="s">
         <v>216</v>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" t="s">
         <v>99</v>
@@ -4688,7 +4688,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B130" t="s">
         <v>217</v>
@@ -4702,7 +4702,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B131" t="s">
         <v>218</v>
@@ -4716,7 +4716,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B132" t="s">
         <v>219</v>
@@ -4730,7 +4730,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B133" t="s">
         <v>220</v>
@@ -4744,7 +4744,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B134" t="s">
         <v>221</v>
@@ -4758,7 +4758,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B135" t="s">
         <v>152</v>
@@ -4772,7 +4772,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B136" t="s">
         <v>222</v>
@@ -4786,7 +4786,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B137" t="s">
         <v>80</v>
@@ -4800,7 +4800,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B138" t="s">
         <v>79</v>
@@ -4814,7 +4814,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B139" t="s">
         <v>127</v>
@@ -4828,7 +4828,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B140" t="s">
         <v>98</v>
@@ -4842,7 +4842,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B141" t="s">
         <v>77</v>
@@ -4856,7 +4856,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B142" t="s">
         <v>76</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B143" t="s">
         <v>75</v>
@@ -4884,7 +4884,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B144" t="s">
         <v>78</v>
@@ -4898,7 +4898,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B145" t="s">
         <v>74</v>
@@ -4912,7 +4912,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B146" t="s">
         <v>224</v>
@@ -4926,7 +4926,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B147" t="s">
         <v>225</v>
@@ -4940,7 +4940,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B148" t="s">
         <v>226</v>
@@ -4954,7 +4954,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B149" t="s">
         <v>227</v>
@@ -4968,7 +4968,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B150" t="s">
         <v>228</v>
@@ -4982,7 +4982,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B151" t="s">
         <v>229</v>
@@ -4996,7 +4996,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B152" t="s">
         <v>230</v>
@@ -5010,7 +5010,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B153" t="s">
         <v>231</v>
@@ -5024,7 +5024,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B154" t="s">
         <v>232</v>
@@ -5038,7 +5038,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B155" t="s">
         <v>233</v>
@@ -5052,7 +5052,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B156" t="s">
         <v>223</v>
@@ -5066,7 +5066,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B157" t="s">
         <v>150</v>
@@ -5080,7 +5080,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B158" t="s">
         <v>149</v>
@@ -5094,7 +5094,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B159" t="s">
         <v>126</v>
@@ -5108,7 +5108,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B160" t="s">
         <v>151</v>
@@ -5122,7 +5122,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B161" t="s">
         <v>125</v>
@@ -5136,7 +5136,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B162" t="s">
         <v>234</v>
@@ -5150,7 +5150,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B163" t="s">
         <v>235</v>
@@ -5164,7 +5164,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B164" t="s">
         <v>236</v>
@@ -5178,7 +5178,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B165" t="s">
         <v>237</v>
@@ -5192,7 +5192,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B166" t="s">
         <v>238</v>
@@ -5206,7 +5206,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B167" t="s">
         <v>239</v>
@@ -5220,7 +5220,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B168" t="s">
         <v>240</v>
@@ -5234,7 +5234,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B169" t="s">
         <v>241</v>
@@ -5248,7 +5248,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B170" t="s">
         <v>242</v>
@@ -5262,7 +5262,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B171" t="s">
         <v>243</v>
@@ -5276,7 +5276,7 @@
     </row>
     <row r="172" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>274</v>

--- a/spreadsheets/BofA_HJ_PodA.xlsx
+++ b/spreadsheets/BofA_HJ_PodA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/halwilkinson/Desktop/sources/OptimumJira/oe-test/oe-test-pushhistory/spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hal/Desktop/sources/Optimum/oe-test/oe-test-pushhistory/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0D8AB9-4110-6B41-ABDF-038B6769B49E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD730D1-B371-2A4D-8CC3-6A3018E010A4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4540" yWindow="460" windowWidth="26560" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57660" yWindow="620" windowWidth="26560" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Points" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="312">
   <si>
     <t>CH1CHWST</t>
   </si>
@@ -346,9 +346,6 @@
     <t>Data Type</t>
   </si>
   <si>
-    <t>Edison Point Name</t>
-  </si>
-  <si>
     <t>CH1CDT</t>
   </si>
   <si>
@@ -857,13 +854,127 @@
   </si>
   <si>
     <t>EDGEOptimizationStatusEnum</t>
+  </si>
+  <si>
+    <t>TotalkW</t>
+  </si>
+  <si>
+    <t>ChillerkW</t>
+  </si>
+  <si>
+    <t>ChillersRunning</t>
+  </si>
+  <si>
+    <t>Optimized</t>
+  </si>
+  <si>
+    <t>PartiallyOptimized</t>
+  </si>
+  <si>
+    <t>CO2Rate</t>
+  </si>
+  <si>
+    <t>CO2Produced</t>
+  </si>
+  <si>
+    <t>UtilityRate</t>
+  </si>
+  <si>
+    <t>CDWSTSPNotOptimized</t>
+  </si>
+  <si>
+    <t>ChillerEfficiency</t>
+  </si>
+  <si>
+    <t>CHWDPSPNotOptimized</t>
+  </si>
+  <si>
+    <t>BASCommunicationFailure</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>DollarsSaved</t>
+  </si>
+  <si>
+    <t>kWh</t>
+  </si>
+  <si>
+    <t>MinimumChilledWaterFlow</t>
+  </si>
+  <si>
+    <t>NotOptimized</t>
+  </si>
+  <si>
+    <t>OptimizationDisabled</t>
+  </si>
+  <si>
+    <t>PlantRunning</t>
+  </si>
+  <si>
+    <t>FreeCooling</t>
+  </si>
+  <si>
+    <t>PercentBASCommunicationFailure</t>
+  </si>
+  <si>
+    <t>PercentOptimized</t>
+  </si>
+  <si>
+    <t>PercentNotFollowing</t>
+  </si>
+  <si>
+    <t>PercentNotOptimized</t>
+  </si>
+  <si>
+    <t>PercentPlantOff</t>
+  </si>
+  <si>
+    <t>PercentPlantOnline</t>
+  </si>
+  <si>
+    <t>PercentTotalLoad</t>
+  </si>
+  <si>
+    <t>PercentTotalLoadReport</t>
+  </si>
+  <si>
+    <t>PlantEfficiency</t>
+  </si>
+  <si>
+    <t>PlantElectricalUsage</t>
+  </si>
+  <si>
+    <t>PlantOff</t>
+  </si>
+  <si>
+    <t>Ton</t>
+  </si>
+  <si>
+    <t>TonHours</t>
+  </si>
+  <si>
+    <t>TotalCapacity</t>
+  </si>
+  <si>
+    <t>TotalkWh</t>
+  </si>
+  <si>
+    <t>TotalTon</t>
+  </si>
+  <si>
+    <t>Tesla Point Name</t>
+  </si>
+  <si>
+    <t>From sites/id query</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1015,9 +1126,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1395,11 +1514,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="64">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2958,2334 +3078,2516 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D172"/>
+  <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="36.5" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" customWidth="1"/>
-    <col min="5" max="5" width="45.6640625" customWidth="1"/>
-    <col min="6" max="6" width="51.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="2"/>
+    <col min="2" max="2" width="36.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="51.6640625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="E27" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E35" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>0</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>0</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>0</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>0</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>0</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>0</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>0</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>0</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>0</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>0</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>0</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>0</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>0</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>0</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>0</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>0</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>0</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>0</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>0</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>0</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>0</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>0</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>0</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>0</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>0</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>0</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>0</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>0</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>0</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>0</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>0</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>0</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>0</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>0</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>0</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>0</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>0</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>0</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>0</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>0</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>0</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>0</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>0</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>0</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>0</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>0</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>0</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>0</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>0</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>0</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>0</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>0</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>0</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>0</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>0</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>0</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>0</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>0</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>0</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>0</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>0</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>0</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>0</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>0</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>0</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>0</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>0</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>0</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>0</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>0</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>0</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>0</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>0</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>0</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>0</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>0</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>0</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>0</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>0</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>0</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>0</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>0</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>0</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>0</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>0</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>0</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>0</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>0</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>0</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>0</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>0</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>0</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>0</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>0</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>0</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>0</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>0</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>0</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>0</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>0</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>0</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>0</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>0</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>0</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>0</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>0</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>0</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>0</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>0</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>0</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>0</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>0</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>0</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>0</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>0</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>0</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>0</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>0</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>0</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>0</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>0</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C160" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D160" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>0</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>0</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C162" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D162" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>0</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C163" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D163" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>0</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>0</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C165" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D165" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>0</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>0</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C167" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>156</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D167" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>0</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C168" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>158</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D168" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>0</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>0</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C170" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>270</v>
-      </c>
-      <c r="C21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>269</v>
-      </c>
-      <c r="C22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>268</v>
-      </c>
-      <c r="C23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>141</v>
-      </c>
-      <c r="C25" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>0</v>
-      </c>
-      <c r="B30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
-        <v>0</v>
-      </c>
-      <c r="B35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
-        <v>0</v>
-      </c>
-      <c r="B36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
-        <v>0</v>
-      </c>
-      <c r="B37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" t="s">
-        <v>99</v>
-      </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
-        <v>0</v>
-      </c>
-      <c r="C38" t="s">
-        <v>99</v>
-      </c>
-      <c r="D38" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
-        <v>0</v>
-      </c>
-      <c r="B39" t="s">
-        <v>164</v>
-      </c>
-      <c r="C39" t="s">
-        <v>99</v>
-      </c>
-      <c r="D39" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
-        <v>0</v>
-      </c>
-      <c r="C40" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
-        <v>0</v>
-      </c>
-      <c r="B41" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" t="s">
-        <v>99</v>
-      </c>
-      <c r="D41" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
-        <v>0</v>
-      </c>
-      <c r="B43" t="s">
-        <v>134</v>
-      </c>
-      <c r="C43" t="s">
-        <v>100</v>
-      </c>
-      <c r="D43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
-        <v>0</v>
-      </c>
-      <c r="B44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" t="s">
-        <v>99</v>
-      </c>
-      <c r="D44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
-        <v>0</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C45" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
-        <v>0</v>
-      </c>
-      <c r="B46" t="s">
-        <v>165</v>
-      </c>
-      <c r="C46" t="s">
-        <v>99</v>
-      </c>
-      <c r="D46" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
-        <v>0</v>
-      </c>
-      <c r="B47" t="s">
-        <v>135</v>
-      </c>
-      <c r="C47" t="s">
-        <v>100</v>
-      </c>
-      <c r="D47" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
-        <v>0</v>
-      </c>
-      <c r="B48" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" t="s">
-        <v>99</v>
-      </c>
-      <c r="D48" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
-        <v>0</v>
-      </c>
-      <c r="B49" t="s">
-        <v>136</v>
-      </c>
-      <c r="C49" t="s">
-        <v>100</v>
-      </c>
-      <c r="D49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
-        <v>0</v>
-      </c>
-      <c r="B50" t="s">
-        <v>138</v>
-      </c>
-      <c r="C50" t="s">
-        <v>99</v>
-      </c>
-      <c r="D50" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
-        <v>0</v>
-      </c>
-      <c r="B51" t="s">
-        <v>120</v>
-      </c>
-      <c r="C51" t="s">
-        <v>99</v>
-      </c>
-      <c r="D51" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
-        <v>0</v>
-      </c>
-      <c r="B52" t="s">
-        <v>32</v>
-      </c>
-      <c r="C52" t="s">
-        <v>99</v>
-      </c>
-      <c r="D52" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
-        <v>0</v>
-      </c>
-      <c r="B53" t="s">
-        <v>167</v>
-      </c>
-      <c r="C53" t="s">
-        <v>100</v>
-      </c>
-      <c r="D53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
-        <v>0</v>
-      </c>
-      <c r="B54" t="s">
-        <v>168</v>
-      </c>
-      <c r="C54" t="s">
-        <v>99</v>
-      </c>
-      <c r="D54" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
-        <v>0</v>
-      </c>
-      <c r="B55" t="s">
-        <v>169</v>
-      </c>
-      <c r="C55" t="s">
-        <v>99</v>
-      </c>
-      <c r="D55" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
-        <v>0</v>
-      </c>
-      <c r="C56" t="s">
-        <v>99</v>
-      </c>
-      <c r="D56" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
-        <v>0</v>
-      </c>
-      <c r="C57" t="s">
-        <v>99</v>
-      </c>
-      <c r="D57" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
-        <v>0</v>
-      </c>
-      <c r="B58" t="s">
-        <v>170</v>
-      </c>
-      <c r="C58" t="s">
-        <v>99</v>
-      </c>
-      <c r="D58" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
-        <v>0</v>
-      </c>
-      <c r="B59" t="s">
-        <v>171</v>
-      </c>
-      <c r="C59" t="s">
-        <v>99</v>
-      </c>
-      <c r="D59" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
-        <v>0</v>
-      </c>
-      <c r="B60" t="s">
-        <v>175</v>
-      </c>
-      <c r="C60" t="s">
-        <v>100</v>
-      </c>
-      <c r="D60" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
-        <v>0</v>
-      </c>
-      <c r="C61" t="s">
-        <v>99</v>
-      </c>
-      <c r="D61" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
-        <v>0</v>
-      </c>
-      <c r="C62" t="s">
-        <v>99</v>
-      </c>
-      <c r="D62" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
-        <v>0</v>
-      </c>
-      <c r="B63" t="s">
-        <v>172</v>
-      </c>
-      <c r="C63" t="s">
-        <v>99</v>
-      </c>
-      <c r="D63" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
-        <v>0</v>
-      </c>
-      <c r="B64" t="s">
-        <v>173</v>
-      </c>
-      <c r="C64" t="s">
-        <v>99</v>
-      </c>
-      <c r="D64" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
-        <v>0</v>
-      </c>
-      <c r="B65" t="s">
-        <v>174</v>
-      </c>
-      <c r="C65" t="s">
-        <v>99</v>
-      </c>
-      <c r="D65" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
-        <v>0</v>
-      </c>
-      <c r="C66" t="s">
-        <v>99</v>
-      </c>
-      <c r="D66" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
-        <v>0</v>
-      </c>
-      <c r="B67" t="s">
-        <v>176</v>
-      </c>
-      <c r="C67" t="s">
-        <v>99</v>
-      </c>
-      <c r="D67" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
-        <v>0</v>
-      </c>
-      <c r="C68" t="s">
-        <v>100</v>
-      </c>
-      <c r="D68" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
-        <v>0</v>
-      </c>
-      <c r="B69" t="s">
-        <v>177</v>
-      </c>
-      <c r="C69" t="s">
-        <v>99</v>
-      </c>
-      <c r="D69" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
-        <v>0</v>
-      </c>
-      <c r="B70" t="s">
-        <v>178</v>
-      </c>
-      <c r="C70" t="s">
-        <v>99</v>
-      </c>
-      <c r="D70" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="3">
-        <v>0</v>
-      </c>
-      <c r="B71" t="s">
-        <v>179</v>
-      </c>
-      <c r="C71" t="s">
-        <v>100</v>
-      </c>
-      <c r="D71" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="3">
-        <v>0</v>
-      </c>
-      <c r="B72" t="s">
-        <v>180</v>
-      </c>
-      <c r="C72" t="s">
-        <v>99</v>
-      </c>
-      <c r="D72" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="3">
-        <v>0</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C73" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="3">
-        <v>0</v>
-      </c>
-      <c r="C74" t="s">
-        <v>100</v>
-      </c>
-      <c r="D74" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="3">
-        <v>0</v>
-      </c>
-      <c r="B75" t="s">
-        <v>181</v>
-      </c>
-      <c r="C75" t="s">
-        <v>100</v>
-      </c>
-      <c r="D75" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
-        <v>0</v>
-      </c>
-      <c r="B76" t="s">
-        <v>185</v>
-      </c>
-      <c r="C76" t="s">
-        <v>99</v>
-      </c>
-      <c r="D76" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
-        <v>0</v>
-      </c>
-      <c r="B77" t="s">
-        <v>182</v>
-      </c>
-      <c r="C77" t="s">
-        <v>100</v>
-      </c>
-      <c r="D77" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="3">
-        <v>0</v>
-      </c>
-      <c r="B78" t="s">
-        <v>183</v>
-      </c>
-      <c r="C78" t="s">
-        <v>99</v>
-      </c>
-      <c r="D78" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="3">
-        <v>0</v>
-      </c>
-      <c r="B79" t="s">
-        <v>184</v>
-      </c>
-      <c r="C79" t="s">
-        <v>99</v>
-      </c>
-      <c r="D79" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="3">
-        <v>0</v>
-      </c>
-      <c r="B80" t="s">
-        <v>187</v>
-      </c>
-      <c r="C80" t="s">
-        <v>100</v>
-      </c>
-      <c r="D80" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="3">
-        <v>0</v>
-      </c>
-      <c r="B81" t="s">
-        <v>188</v>
-      </c>
-      <c r="C81" t="s">
-        <v>99</v>
-      </c>
-      <c r="D81" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="3">
-        <v>0</v>
-      </c>
-      <c r="B82" t="s">
-        <v>189</v>
-      </c>
-      <c r="C82" t="s">
-        <v>99</v>
-      </c>
-      <c r="D82" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="3">
-        <v>0</v>
-      </c>
-      <c r="C83" t="s">
-        <v>100</v>
-      </c>
-      <c r="D83" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="3">
-        <v>0</v>
-      </c>
-      <c r="C84" t="s">
-        <v>100</v>
-      </c>
-      <c r="D84" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="3">
-        <v>0</v>
-      </c>
-      <c r="B85" t="s">
-        <v>190</v>
-      </c>
-      <c r="C85" t="s">
-        <v>99</v>
-      </c>
-      <c r="D85" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="3">
-        <v>0</v>
-      </c>
-      <c r="B86" t="s">
-        <v>191</v>
-      </c>
-      <c r="C86" t="s">
-        <v>99</v>
-      </c>
-      <c r="D86" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="3">
-        <v>0</v>
-      </c>
-      <c r="B87" t="s">
-        <v>192</v>
-      </c>
-      <c r="C87" t="s">
-        <v>100</v>
-      </c>
-      <c r="D87" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="3">
-        <v>0</v>
-      </c>
-      <c r="C88" t="s">
-        <v>99</v>
-      </c>
-      <c r="D88" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="3">
-        <v>0</v>
-      </c>
-      <c r="C89" t="s">
-        <v>99</v>
-      </c>
-      <c r="D89" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="3">
-        <v>0</v>
-      </c>
-      <c r="B90" t="s">
-        <v>193</v>
-      </c>
-      <c r="C90" t="s">
-        <v>99</v>
-      </c>
-      <c r="D90" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="3">
-        <v>0</v>
-      </c>
-      <c r="B91" t="s">
-        <v>194</v>
-      </c>
-      <c r="C91" t="s">
-        <v>99</v>
-      </c>
-      <c r="D91" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="3">
-        <v>0</v>
-      </c>
-      <c r="B92" t="s">
-        <v>195</v>
-      </c>
-      <c r="C92" t="s">
-        <v>99</v>
-      </c>
-      <c r="D92" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="3">
-        <v>0</v>
-      </c>
-      <c r="B93" t="s">
-        <v>196</v>
-      </c>
-      <c r="C93" t="s">
-        <v>99</v>
-      </c>
-      <c r="D93" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="3">
-        <v>0</v>
-      </c>
-      <c r="B94" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" t="s">
-        <v>99</v>
-      </c>
-      <c r="D94" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="3">
-        <v>0</v>
-      </c>
-      <c r="C95" t="s">
-        <v>99</v>
-      </c>
-      <c r="D95" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="3">
-        <v>0</v>
-      </c>
-      <c r="B96" t="s">
-        <v>198</v>
-      </c>
-      <c r="C96" t="s">
-        <v>99</v>
-      </c>
-      <c r="D96" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="3">
-        <v>0</v>
-      </c>
-      <c r="B97" t="s">
-        <v>199</v>
-      </c>
-      <c r="C97" t="s">
-        <v>99</v>
-      </c>
-      <c r="D97" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="3">
-        <v>0</v>
-      </c>
-      <c r="B98" t="s">
-        <v>200</v>
-      </c>
-      <c r="C98" t="s">
-        <v>100</v>
-      </c>
-      <c r="D98" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="3">
-        <v>0</v>
-      </c>
-      <c r="B99" t="s">
-        <v>201</v>
-      </c>
-      <c r="C99" t="s">
-        <v>99</v>
-      </c>
-      <c r="D99" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="3">
-        <v>0</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C100" t="s">
-        <v>99</v>
-      </c>
-      <c r="D100" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="3">
-        <v>0</v>
-      </c>
-      <c r="B101" t="s">
-        <v>207</v>
-      </c>
-      <c r="C101" t="s">
-        <v>99</v>
-      </c>
-      <c r="D101" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="3">
-        <v>0</v>
-      </c>
-      <c r="B102" t="s">
-        <v>202</v>
-      </c>
-      <c r="C102" t="s">
-        <v>100</v>
-      </c>
-      <c r="D102" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="3">
-        <v>0</v>
-      </c>
-      <c r="B103" t="s">
-        <v>208</v>
-      </c>
-      <c r="C103" t="s">
-        <v>99</v>
-      </c>
-      <c r="D103" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="3">
-        <v>0</v>
-      </c>
-      <c r="B104" t="s">
-        <v>203</v>
-      </c>
-      <c r="C104" t="s">
-        <v>100</v>
-      </c>
-      <c r="D104" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="3">
-        <v>0</v>
-      </c>
-      <c r="B105" t="s">
-        <v>204</v>
-      </c>
-      <c r="C105" t="s">
-        <v>100</v>
-      </c>
-      <c r="D105" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="3">
-        <v>0</v>
-      </c>
-      <c r="B106" t="s">
-        <v>205</v>
-      </c>
-      <c r="C106" t="s">
-        <v>99</v>
-      </c>
-      <c r="D106" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="3">
-        <v>0</v>
-      </c>
-      <c r="B107" t="s">
-        <v>206</v>
-      </c>
-      <c r="C107" t="s">
-        <v>99</v>
-      </c>
-      <c r="D107" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="3">
-        <v>0</v>
-      </c>
-      <c r="C108" t="s">
-        <v>99</v>
-      </c>
-      <c r="D108" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="3">
-        <v>0</v>
-      </c>
-      <c r="B109" t="s">
-        <v>86</v>
-      </c>
-      <c r="C109" t="s">
-        <v>99</v>
-      </c>
-      <c r="D109" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="3">
-        <v>0</v>
-      </c>
-      <c r="C110" t="s">
-        <v>99</v>
-      </c>
-      <c r="D110" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="3">
-        <v>0</v>
-      </c>
-      <c r="B111" t="s">
-        <v>85</v>
-      </c>
-      <c r="C111" t="s">
-        <v>99</v>
-      </c>
-      <c r="D111" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="3">
-        <v>0</v>
-      </c>
-      <c r="C112" t="s">
-        <v>99</v>
-      </c>
-      <c r="D112" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="3">
-        <v>0</v>
-      </c>
-      <c r="C113" t="s">
-        <v>99</v>
-      </c>
-      <c r="D113" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="3">
-        <v>0</v>
-      </c>
-      <c r="B114" t="s">
-        <v>271</v>
-      </c>
-      <c r="C114" t="s">
-        <v>99</v>
-      </c>
-      <c r="D114" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="3">
-        <v>0</v>
-      </c>
-      <c r="C115" t="s">
-        <v>99</v>
-      </c>
-      <c r="D115" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="3">
-        <v>0</v>
-      </c>
-      <c r="B116" t="s">
+      <c r="D170" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>0</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>0</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D172" s="4" t="s">
         <v>272</v>
-      </c>
-      <c r="C116" t="s">
-        <v>99</v>
-      </c>
-      <c r="D116" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="3">
-        <v>0</v>
-      </c>
-      <c r="B117" t="s">
-        <v>94</v>
-      </c>
-      <c r="C117" t="s">
-        <v>99</v>
-      </c>
-      <c r="D117" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="3">
-        <v>0</v>
-      </c>
-      <c r="B118" t="s">
-        <v>128</v>
-      </c>
-      <c r="C118" t="s">
-        <v>99</v>
-      </c>
-      <c r="D118" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="3">
-        <v>0</v>
-      </c>
-      <c r="B119" t="s">
-        <v>91</v>
-      </c>
-      <c r="C119" t="s">
-        <v>99</v>
-      </c>
-      <c r="D119" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="3">
-        <v>0</v>
-      </c>
-      <c r="B120" t="s">
-        <v>209</v>
-      </c>
-      <c r="C120" t="s">
-        <v>99</v>
-      </c>
-      <c r="D120" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="3">
-        <v>0</v>
-      </c>
-      <c r="B121" t="s">
-        <v>210</v>
-      </c>
-      <c r="C121" t="s">
-        <v>100</v>
-      </c>
-      <c r="D121" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="3">
-        <v>0</v>
-      </c>
-      <c r="C122" t="s">
-        <v>99</v>
-      </c>
-      <c r="D122" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="3">
-        <v>0</v>
-      </c>
-      <c r="B123" t="s">
-        <v>211</v>
-      </c>
-      <c r="C123" t="s">
-        <v>100</v>
-      </c>
-      <c r="D123" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="3">
-        <v>0</v>
-      </c>
-      <c r="B124" t="s">
-        <v>212</v>
-      </c>
-      <c r="C124" t="s">
-        <v>99</v>
-      </c>
-      <c r="D124" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="3">
-        <v>0</v>
-      </c>
-      <c r="B125" t="s">
-        <v>213</v>
-      </c>
-      <c r="C125" t="s">
-        <v>100</v>
-      </c>
-      <c r="D125" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="3">
-        <v>0</v>
-      </c>
-      <c r="B126" t="s">
-        <v>214</v>
-      </c>
-      <c r="C126" t="s">
-        <v>99</v>
-      </c>
-      <c r="D126" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="3">
-        <v>0</v>
-      </c>
-      <c r="B127" t="s">
-        <v>215</v>
-      </c>
-      <c r="C127" t="s">
-        <v>100</v>
-      </c>
-      <c r="D127" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="3">
-        <v>0</v>
-      </c>
-      <c r="B128" t="s">
-        <v>216</v>
-      </c>
-      <c r="C128" t="s">
-        <v>100</v>
-      </c>
-      <c r="D128" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="3">
-        <v>0</v>
-      </c>
-      <c r="C129" t="s">
-        <v>99</v>
-      </c>
-      <c r="D129" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="3">
-        <v>0</v>
-      </c>
-      <c r="B130" t="s">
-        <v>217</v>
-      </c>
-      <c r="C130" t="s">
-        <v>100</v>
-      </c>
-      <c r="D130" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="3">
-        <v>0</v>
-      </c>
-      <c r="B131" t="s">
-        <v>218</v>
-      </c>
-      <c r="C131" t="s">
-        <v>99</v>
-      </c>
-      <c r="D131" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="3">
-        <v>0</v>
-      </c>
-      <c r="B132" t="s">
-        <v>219</v>
-      </c>
-      <c r="C132" t="s">
-        <v>100</v>
-      </c>
-      <c r="D132" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="3">
-        <v>0</v>
-      </c>
-      <c r="B133" t="s">
-        <v>220</v>
-      </c>
-      <c r="C133" t="s">
-        <v>99</v>
-      </c>
-      <c r="D133" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="3">
-        <v>0</v>
-      </c>
-      <c r="B134" t="s">
-        <v>221</v>
-      </c>
-      <c r="C134" t="s">
-        <v>99</v>
-      </c>
-      <c r="D134" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="3">
-        <v>0</v>
-      </c>
-      <c r="B135" t="s">
-        <v>152</v>
-      </c>
-      <c r="C135" t="s">
-        <v>100</v>
-      </c>
-      <c r="D135" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="3">
-        <v>0</v>
-      </c>
-      <c r="B136" t="s">
-        <v>222</v>
-      </c>
-      <c r="C136" t="s">
-        <v>100</v>
-      </c>
-      <c r="D136" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="3">
-        <v>0</v>
-      </c>
-      <c r="B137" t="s">
-        <v>80</v>
-      </c>
-      <c r="C137" t="s">
-        <v>99</v>
-      </c>
-      <c r="D137" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="3">
-        <v>0</v>
-      </c>
-      <c r="B138" t="s">
-        <v>79</v>
-      </c>
-      <c r="C138" t="s">
-        <v>99</v>
-      </c>
-      <c r="D138" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="3">
-        <v>0</v>
-      </c>
-      <c r="B139" t="s">
-        <v>127</v>
-      </c>
-      <c r="C139" t="s">
-        <v>99</v>
-      </c>
-      <c r="D139" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="3">
-        <v>0</v>
-      </c>
-      <c r="B140" t="s">
-        <v>98</v>
-      </c>
-      <c r="C140" t="s">
-        <v>99</v>
-      </c>
-      <c r="D140" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="3">
-        <v>0</v>
-      </c>
-      <c r="B141" t="s">
-        <v>77</v>
-      </c>
-      <c r="C141" t="s">
-        <v>100</v>
-      </c>
-      <c r="D141" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="3">
-        <v>0</v>
-      </c>
-      <c r="B142" t="s">
-        <v>76</v>
-      </c>
-      <c r="C142" t="s">
-        <v>100</v>
-      </c>
-      <c r="D142" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="3">
-        <v>0</v>
-      </c>
-      <c r="B143" t="s">
-        <v>75</v>
-      </c>
-      <c r="C143" t="s">
-        <v>99</v>
-      </c>
-      <c r="D143" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="3">
-        <v>0</v>
-      </c>
-      <c r="B144" t="s">
-        <v>78</v>
-      </c>
-      <c r="C144" t="s">
-        <v>100</v>
-      </c>
-      <c r="D144" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="3">
-        <v>0</v>
-      </c>
-      <c r="B145" t="s">
-        <v>74</v>
-      </c>
-      <c r="C145" t="s">
-        <v>99</v>
-      </c>
-      <c r="D145" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="3">
-        <v>0</v>
-      </c>
-      <c r="B146" t="s">
-        <v>224</v>
-      </c>
-      <c r="C146" t="s">
-        <v>100</v>
-      </c>
-      <c r="D146" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="3">
-        <v>0</v>
-      </c>
-      <c r="B147" t="s">
-        <v>225</v>
-      </c>
-      <c r="C147" t="s">
-        <v>100</v>
-      </c>
-      <c r="D147" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="3">
-        <v>0</v>
-      </c>
-      <c r="B148" t="s">
-        <v>226</v>
-      </c>
-      <c r="C148" t="s">
-        <v>99</v>
-      </c>
-      <c r="D148" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="3">
-        <v>0</v>
-      </c>
-      <c r="B149" t="s">
-        <v>227</v>
-      </c>
-      <c r="C149" t="s">
-        <v>100</v>
-      </c>
-      <c r="D149" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="3">
-        <v>0</v>
-      </c>
-      <c r="B150" t="s">
-        <v>228</v>
-      </c>
-      <c r="C150" t="s">
-        <v>99</v>
-      </c>
-      <c r="D150" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="3">
-        <v>0</v>
-      </c>
-      <c r="B151" t="s">
-        <v>229</v>
-      </c>
-      <c r="C151" t="s">
-        <v>100</v>
-      </c>
-      <c r="D151" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="3">
-        <v>0</v>
-      </c>
-      <c r="B152" t="s">
-        <v>230</v>
-      </c>
-      <c r="C152" t="s">
-        <v>100</v>
-      </c>
-      <c r="D152" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="3">
-        <v>0</v>
-      </c>
-      <c r="B153" t="s">
-        <v>231</v>
-      </c>
-      <c r="C153" t="s">
-        <v>99</v>
-      </c>
-      <c r="D153" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="3">
-        <v>0</v>
-      </c>
-      <c r="B154" t="s">
-        <v>232</v>
-      </c>
-      <c r="C154" t="s">
-        <v>100</v>
-      </c>
-      <c r="D154" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" s="3">
-        <v>0</v>
-      </c>
-      <c r="B155" t="s">
-        <v>233</v>
-      </c>
-      <c r="C155" t="s">
-        <v>99</v>
-      </c>
-      <c r="D155" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="3">
-        <v>0</v>
-      </c>
-      <c r="B156" t="s">
-        <v>223</v>
-      </c>
-      <c r="C156" t="s">
-        <v>99</v>
-      </c>
-      <c r="D156" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="3">
-        <v>0</v>
-      </c>
-      <c r="B157" t="s">
-        <v>150</v>
-      </c>
-      <c r="C157" t="s">
-        <v>100</v>
-      </c>
-      <c r="D157" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="3">
-        <v>0</v>
-      </c>
-      <c r="B158" t="s">
-        <v>149</v>
-      </c>
-      <c r="C158" t="s">
-        <v>100</v>
-      </c>
-      <c r="D158" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="3">
-        <v>0</v>
-      </c>
-      <c r="B159" t="s">
-        <v>126</v>
-      </c>
-      <c r="C159" t="s">
-        <v>99</v>
-      </c>
-      <c r="D159" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="3">
-        <v>0</v>
-      </c>
-      <c r="B160" t="s">
-        <v>151</v>
-      </c>
-      <c r="C160" t="s">
-        <v>100</v>
-      </c>
-      <c r="D160" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="3">
-        <v>0</v>
-      </c>
-      <c r="B161" t="s">
-        <v>125</v>
-      </c>
-      <c r="C161" t="s">
-        <v>99</v>
-      </c>
-      <c r="D161" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="3">
-        <v>0</v>
-      </c>
-      <c r="B162" t="s">
-        <v>234</v>
-      </c>
-      <c r="C162" t="s">
-        <v>100</v>
-      </c>
-      <c r="D162" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="3">
-        <v>0</v>
-      </c>
-      <c r="B163" t="s">
-        <v>235</v>
-      </c>
-      <c r="C163" t="s">
-        <v>100</v>
-      </c>
-      <c r="D163" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="3">
-        <v>0</v>
-      </c>
-      <c r="B164" t="s">
-        <v>236</v>
-      </c>
-      <c r="C164" t="s">
-        <v>99</v>
-      </c>
-      <c r="D164" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="3">
-        <v>0</v>
-      </c>
-      <c r="B165" t="s">
-        <v>237</v>
-      </c>
-      <c r="C165" t="s">
-        <v>100</v>
-      </c>
-      <c r="D165" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="3">
-        <v>0</v>
-      </c>
-      <c r="B166" t="s">
-        <v>238</v>
-      </c>
-      <c r="C166" t="s">
-        <v>99</v>
-      </c>
-      <c r="D166" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="3">
-        <v>0</v>
-      </c>
-      <c r="B167" t="s">
-        <v>239</v>
-      </c>
-      <c r="C167" t="s">
-        <v>100</v>
-      </c>
-      <c r="D167" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="3">
-        <v>0</v>
-      </c>
-      <c r="B168" t="s">
-        <v>240</v>
-      </c>
-      <c r="C168" t="s">
-        <v>100</v>
-      </c>
-      <c r="D168" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="3">
-        <v>0</v>
-      </c>
-      <c r="B169" t="s">
-        <v>241</v>
-      </c>
-      <c r="C169" t="s">
-        <v>99</v>
-      </c>
-      <c r="D169" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="3">
-        <v>0</v>
-      </c>
-      <c r="B170" t="s">
-        <v>242</v>
-      </c>
-      <c r="C170" t="s">
-        <v>100</v>
-      </c>
-      <c r="D170" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="3">
-        <v>0</v>
-      </c>
-      <c r="B171" t="s">
-        <v>243</v>
-      </c>
-      <c r="C171" t="s">
-        <v>99</v>
-      </c>
-      <c r="D171" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A172" s="3">
-        <v>0</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C172" t="s">
-        <v>99</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
   </sheetData>
